--- a/dane.xlsx
+++ b/dane.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\Python\sprawdzanie_technologii_w_złożeniu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\QNAP-ENERGO\Technologia\2024\05_07_10_8FB_zbiorczy\INTEGRA_ZLOZENIE-05,07,10-8FBzbiorczy\IMPORTERY\sprawdzanie_technologii_w_złożeniu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16156F6F-A421-408C-A523-1D1BCE158738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF82D76-4ABA-4F64-8B8D-B2B7E8BDACEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="1082">
   <si>
     <t>Zeinr</t>
   </si>
@@ -3266,12 +3277,24 @@
   <si>
     <t>Bezeichnung</t>
   </si>
+  <si>
+    <t>GEGENLAGER MULDENSTATION BB0650 30°</t>
+  </si>
+  <si>
+    <t>SL40661309</t>
+  </si>
+  <si>
+    <t>GEGENLAGER MULDENSTATION BB0500 20°</t>
+  </si>
+  <si>
+    <t>SL40561221</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3279,16 +3302,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3296,12 +3340,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -3582,9 +3647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1096"/>
+  <dimension ref="A1:C1098"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1062" workbookViewId="0">
+      <selection activeCell="A1094" sqref="A1094"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15625,6 +15692,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1097" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1097" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1097" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1098" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B1098" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
